--- a/biology/Médecine/Nina_Starr_Braunwald/Nina_Starr_Braunwald.xlsx
+++ b/biology/Médecine/Nina_Starr_Braunwald/Nina_Starr_Braunwald.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nina Starr Braunwald (1928 - 1992) est une chirurgienne cardiaque américaine, considérée comme une pionnière dans le domaine de la chirurgie des valves cardiaques. Elle fut également l'une des premières femmes au monde à exercer la chirurgie cardiaque.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nina Starr est née le 2 mars 1928 à New York, dans l'arrondissement de Brooklyn, de Mary et Morris C. Starr[1]. Son père médecin l'a encouragée à réaliser des études médicales. En 1952, elle a commencé son internat à l'hôpital Bellevue de New York. Elle en est plus tard devenue la première femme à pratiquer la chirurgie générale. Cette même année, Nina Starr a épousé Eugene Braunwald, un interne de cardiologie. Le couple a eu 3 filles : Karen, Allison et Jill. Nina Starr est morte le 5 août 1992.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nina Starr est née le 2 mars 1928 à New York, dans l'arrondissement de Brooklyn, de Mary et Morris C. Starr. Son père médecin l'a encouragée à réaliser des études médicales. En 1952, elle a commencé son internat à l'hôpital Bellevue de New York. Elle en est plus tard devenue la première femme à pratiquer la chirurgie générale. Cette même année, Nina Starr a épousé Eugene Braunwald, un interne de cardiologie. Le couple a eu 3 filles : Karen, Allison et Jill. Nina Starr est morte le 5 août 1992.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Carrière chirurgicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1958, Nina Starr Braunwald a commencé l'apprentissage de la chirurgie cardiaque auprès d'Andrew Morrow, à Bethesda dans le Maryland. 
-Nina Starr Braunwald a conçu et implanté en 1960 la première valve mitrale prothétique[2]. Cette prothèse, appelée valve de Braunwald-Morrow, a des feuillets de polyuréthane et des cordage de Teflon. La génération suivante de valves, la valve de Braunwald-Cutter, a été implantée à des milliers de patients de 1971 à 1979 en traitement de l'insuffisance mitrale[1],[3]. Nina Starr Braunwald a également participé à la conception des prothèses d'allogreffes aortiques stentées et au développement des endartériectomies de l'artère pulmonaire pour maladie thrombo-embolique chronique[2]. Elle a aussi créé des techniques innovantes pour prévenir la formation de thrombus lorsqu'une assistance circulatoire est utilisée chez un patient porteur de prothèse valvulaire cardiaque[2].
-En 1963, elle est devenue la première américaine certifiée par l'American Board of Thoracic Surgery[1].
-En 1968, Nina Starr Braunwald a rejoint l'université de San Diego en Californie[1]. Elle y a créé la filière de formation de chirurgie cardiaque[4]. En 1972, elle a été la première chirurgienne à rejoindre l'université d'Harvard[3]. Le sexisme institutionnel a toutefois limité l'évolution de sa carrière ; Nina Starr Braunwald n'a ainsi jamais été nommée professeur[1],[2]. 
+Nina Starr Braunwald a conçu et implanté en 1960 la première valve mitrale prothétique. Cette prothèse, appelée valve de Braunwald-Morrow, a des feuillets de polyuréthane et des cordage de Teflon. La génération suivante de valves, la valve de Braunwald-Cutter, a été implantée à des milliers de patients de 1971 à 1979 en traitement de l'insuffisance mitrale,. Nina Starr Braunwald a également participé à la conception des prothèses d'allogreffes aortiques stentées et au développement des endartériectomies de l'artère pulmonaire pour maladie thrombo-embolique chronique. Elle a aussi créé des techniques innovantes pour prévenir la formation de thrombus lorsqu'une assistance circulatoire est utilisée chez un patient porteur de prothèse valvulaire cardiaque.
+En 1963, elle est devenue la première américaine certifiée par l'American Board of Thoracic Surgery.
+En 1968, Nina Starr Braunwald a rejoint l'université de San Diego en Californie. Elle y a créé la filière de formation de chirurgie cardiaque. En 1972, elle a été la première chirurgienne à rejoindre l'université d'Harvard. Le sexisme institutionnel a toutefois limité l'évolution de sa carrière ; Nina Starr Braunwald n'a ainsi jamais été nommée professeur,. 
 </t>
         </is>
       </c>
